--- a/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-all-charts.xlsx
+++ b/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-all-charts.xlsx
@@ -324,9 +324,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -355,11 +358,18 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -375,11 +385,18 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="ED7D31"/>
             </a:solidFill>
-            <a:ln w="25400"/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -395,11 +412,18 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="A5A5A5"/>
             </a:solidFill>
-            <a:ln w="25400"/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -417,6 +441,7 @@
       </c:radarChart>
       <c:catAx>
         <c:axId val="1137131807"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:crossAx val="1137132287"/>
         <c:crosses val="autoZero"/>
@@ -459,6 +484,7 @@
       </c:catAx>
       <c:valAx>
         <c:axId val="1137132287"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:crossAx val="1137131807"/>
         <c:crosses val="autoZero"/>
@@ -469,7 +495,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -505,7 +533,9 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -577,9 +607,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -607,6 +640,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
@@ -618,6 +656,20 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>ChartData!$A$2:$A$6</c:f>
@@ -628,10 +680,16 @@
               <c:f>ChartData!$B$2:$B$6</c:f>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
@@ -643,6 +701,20 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>ChartData!$A$2:$A$6</c:f>
@@ -653,10 +725,16 @@
               <c:f>ChartData!$C$2:$C$6</c:f>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
@@ -668,6 +746,20 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="A5A5A5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="A5A5A5"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>ChartData!$A$2:$A$6</c:f>
@@ -678,6 +770,7 @@
               <c:f>ChartData!$D$2:$D$6</c:f>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:marker val="1"/>
         <c:smooth val="0"/>
@@ -686,6 +779,7 @@
       </c:lineChart>
       <c:catAx>
         <c:axId val="1199828015"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:crossAx val="1199826575"/>
         <c:crosses val="autoZero"/>
@@ -728,6 +822,7 @@
       </c:catAx>
       <c:valAx>
         <c:axId val="1199826575"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:crossAx val="1199828015"/>
         <c:crosses val="autoZero"/>
@@ -738,7 +833,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -774,7 +871,9 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -846,9 +945,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -876,6 +978,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
@@ -887,6 +994,9 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>ChartData!$A$2:$A$6</c:f>
@@ -897,10 +1007,16 @@
               <c:f>ChartData!$B$2:$B$6</c:f>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
@@ -912,6 +1028,9 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>ChartData!$A$2:$A$6</c:f>
@@ -922,10 +1041,16 @@
               <c:f>ChartData!$C$2:$C$6</c:f>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
@@ -937,6 +1062,9 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>ChartData!$A$2:$A$6</c:f>
@@ -947,6 +1075,7 @@
               <c:f>ChartData!$D$2:$D$6</c:f>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:smooth val="0"/>
         <c:axId val="1199880335"/>
@@ -954,6 +1083,7 @@
       </c:lineChart>
       <c:catAx>
         <c:axId val="1199880335"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:crossAx val="1199877455"/>
         <c:crosses val="autoZero"/>
@@ -996,6 +1126,7 @@
       </c:catAx>
       <c:valAx>
         <c:axId val="1199877455"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:crossAx val="1199880335"/>
         <c:crosses val="autoZero"/>
@@ -1006,7 +1137,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1042,7 +1175,9 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1114,9 +1249,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1145,11 +1283,18 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -1165,11 +1310,18 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="ED7D31"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -1185,11 +1337,18 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="A5A5A5"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -1209,6 +1368,7 @@
       </c:barChart>
       <c:catAx>
         <c:axId val="1199868815"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:crossAx val="1199869295"/>
         <c:crosses val="autoZero"/>
@@ -1251,6 +1411,7 @@
       </c:catAx>
       <c:valAx>
         <c:axId val="1199869295"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:crossAx val="1199868815"/>
         <c:crosses val="autoZero"/>
@@ -1261,7 +1422,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1297,7 +1460,9 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1369,9 +1534,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1400,11 +1568,18 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -1420,11 +1595,18 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="ED7D31"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -1440,11 +1622,18 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="A5A5A5"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -1464,6 +1653,7 @@
       </c:barChart>
       <c:catAx>
         <c:axId val="1199866895"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:crossAx val="1199876015"/>
         <c:crosses val="autoZero"/>
@@ -1506,6 +1696,7 @@
       </c:catAx>
       <c:valAx>
         <c:axId val="1199876015"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:crossAx val="1199866895"/>
         <c:crosses val="autoZero"/>
@@ -1516,7 +1707,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1552,7 +1745,9 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1624,9 +1819,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1655,11 +1853,18 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -1675,11 +1880,18 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="ED7D31"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -1695,11 +1907,18 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="A5A5A5"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -1718,6 +1937,7 @@
       </c:barChart>
       <c:catAx>
         <c:axId val="1199847695"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:crossAx val="1199849135"/>
         <c:crosses val="autoZero"/>
@@ -1760,6 +1980,7 @@
       </c:catAx>
       <c:valAx>
         <c:axId val="1199849135"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:crossAx val="1199847695"/>
         <c:crosses val="autoZero"/>
@@ -1770,7 +1991,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1806,7 +2029,9 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1878,9 +2103,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1909,11 +2137,18 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -1929,11 +2164,18 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="ED7D31"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -1949,11 +2191,18 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="A5A5A5"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -1973,6 +2222,7 @@
       </c:barChart>
       <c:catAx>
         <c:axId val="1199850575"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:crossAx val="1199858255"/>
         <c:crosses val="autoZero"/>
@@ -2015,6 +2265,7 @@
       </c:catAx>
       <c:valAx>
         <c:axId val="1199858255"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:crossAx val="1199850575"/>
         <c:crosses val="autoZero"/>
@@ -2025,7 +2276,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2061,7 +2314,9 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2133,9 +2388,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2164,11 +2422,18 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -2184,11 +2449,18 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="ED7D31"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -2204,11 +2476,18 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="A5A5A5"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -2228,6 +2507,7 @@
       </c:barChart>
       <c:catAx>
         <c:axId val="1199857295"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:crossAx val="1199855375"/>
         <c:crosses val="autoZero"/>
@@ -2270,6 +2550,7 @@
       </c:catAx>
       <c:valAx>
         <c:axId val="1199855375"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:crossAx val="1199857295"/>
         <c:crosses val="autoZero"/>
@@ -2280,7 +2561,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2316,7 +2599,9 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2388,9 +2673,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2419,11 +2707,18 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -2439,11 +2734,18 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="ED7D31"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -2459,11 +2761,18 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="A5A5A5"/>
             </a:solidFill>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -2483,6 +2792,7 @@
       </c:barChart>
       <c:catAx>
         <c:axId val="1199852495"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:crossAx val="1199847215"/>
         <c:crosses val="autoZero"/>
@@ -2525,6 +2835,7 @@
       </c:catAx>
       <c:valAx>
         <c:axId val="1199847215"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:crossAx val="1199852495"/>
         <c:crosses val="autoZero"/>
@@ -2535,7 +2846,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2571,7 +2884,9 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2643,9 +2958,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2674,6 +2992,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
@@ -2685,6 +3008,9 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>ChartData!$A$2:$A$6</c:f>
@@ -2699,6 +3025,11 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
@@ -2710,6 +3041,9 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>ChartData!$A$2:$A$6</c:f>
@@ -2724,6 +3058,11 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
@@ -2735,6 +3074,9 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>ChartData!$A$2:$A$6</c:f>
@@ -2751,6 +3093,7 @@
       </c:radarChart>
       <c:catAx>
         <c:axId val="1137115967"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:crossAx val="1137129887"/>
         <c:crosses val="autoZero"/>
@@ -2793,6 +3136,7 @@
       </c:catAx>
       <c:valAx>
         <c:axId val="1137129887"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:crossAx val="1137115967"/>
         <c:crosses val="autoZero"/>
@@ -2803,7 +3147,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2839,7 +3185,9 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2911,9 +3259,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2935,6 +3286,204 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ChartData!$C$2:$C$6</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ChartData!$D$2:$D$6</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1199844815"/>
+        <c:axId val="1199846255"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1199844815"/>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:crossAx val="1199846255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1199846255"/>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:crossAx val="1199844815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3004,9 +3553,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -3028,6 +3580,200 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ChartData!$C$2:$C$6</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ChartData!$D$2:$D$6</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1199841455"/>
+        <c:axId val="1199839535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1199841455"/>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:crossAx val="1199839535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1199839535"/>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:crossAx val="1199841455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3097,9 +3843,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -3126,7 +3875,9 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -3154,6 +3905,81 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="A5A5A5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>ChartData!$A$2:$A$6</c:f>
@@ -3166,11 +3992,13 @@
           </c:val>
         </c:ser>
         <c:firstSliceAng val="0"/>
-        <c:holeSize val="75.0"/>
+        <c:holeSize val="75"/>
       </c:doughnutChart>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3242,9 +4070,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -3271,7 +4102,9 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -3299,6 +4132,81 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="A5A5A5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>ChartData!$A$2:$A$6</c:f>
@@ -3314,7 +4222,9 @@
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3386,9 +4296,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -3410,6 +4323,192 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:plotArea>
+      <c:areaChart>
+        <c:grouping val="percentStacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartData!$A$2:$A$6</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartData!$B$2:$B$6</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D31"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartData!$A$2:$A$6</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartData!$C$2:$C$6</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A5A5A5"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartData!$A$2:$A$6</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartData!$D$2:$D$6</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1199817455"/>
+        <c:axId val="1199834255"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1199817455"/>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:crossAx val="1199834255"/>
+        <c:crosses val="autoZero"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:lblAlgn val="ctr"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1199834255"/>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:crossAx val="1199817455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
@@ -3479,9 +4578,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -3503,6 +4605,192 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:plotArea>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartData!$A$2:$A$6</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartData!$B$2:$B$6</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D31"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartData!$A$2:$A$6</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartData!$C$2:$C$6</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A5A5A5"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartData!$A$2:$A$6</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartData!$D$2:$D$6</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1199828975"/>
+        <c:axId val="1199829455"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1199828975"/>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:crossAx val="1199829455"/>
+        <c:crosses val="autoZero"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:lblAlgn val="ctr"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1199829455"/>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:crossAx val="1199828975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
@@ -3572,9 +4860,12 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -3596,6 +4887,192 @@
         </a:p>
       </c:txPr>
     </c:title>
+    <c:plotArea>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartData!$A$2:$A$6</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartData!$B$2:$B$6</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D31"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartData!$A$2:$A$6</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartData!$C$2:$C$6</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A5A5A5"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartData!$A$2:$A$6</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartData!$D$2:$D$6</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1199816495"/>
+        <c:axId val="1199832815"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1199816495"/>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:crossAx val="1199832815"/>
+        <c:crosses val="autoZero"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="D9D9D9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:lblAlgn val="ctr"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1199832815"/>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:crossAx val="1199816495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
@@ -3990,7 +5467,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart_1767023222641"/>
+        <xdr:cNvPr id="1" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -4027,7 +5504,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart_1767023222660"/>
+        <xdr:cNvPr id="1" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -4138,7 +5615,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart_1767023222719"/>
+        <xdr:cNvPr id="1" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -4175,7 +5652,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart_1767023222734"/>
+        <xdr:cNvPr id="1" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -4212,7 +5689,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart_1767023222747"/>
+        <xdr:cNvPr id="1" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>

--- a/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-all-charts.xlsx
+++ b/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-all-charts.xlsx
@@ -3910,6 +3910,11 @@
               <c:f>ChartData!$D$1</c:f>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+          </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -4137,6 +4142,11 @@
               <c:f>ChartData!$D$1</c:f>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+          </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>

--- a/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-all-charts.xlsx
+++ b/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-all-charts.xlsx
@@ -31,6 +31,7 @@
     <sheet name="Chart_堆积柱形图" sheetId="16" r:id="rId19"/>
     <sheet name="Chart_簇状柱形图" sheetId="17" r:id="rId20"/>
     <sheet name="ChartData" sheetId="18" r:id="rId21"/>
+    <sheet name="ScatterChart" sheetId="19" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -131,6 +132,15 @@
 </file>
 
 <file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>nop</author>
+  </authors>
+  <commentList/>
+</comments>
+</file>
+
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>nop</author>
@@ -772,7 +782,6 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1199828015"/>
         <c:axId val="1199826575"/>
@@ -2881,6 +2890,553 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:roundedCorners val="0"/>
+  <c:lang val="zh-CN"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:spPr>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:srgbClr val="595959"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:srgbClr val="262626"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </a:bodyPr>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="F2F2F2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ABC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="F2F2F2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="BFBFBF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="19050" dir="5400000" blurRad="57150">
+                <a:srgbClr val="000000">
+                  <a:alpha val="37000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="F3F6FB"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="204B97"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw dist="19050" dir="5400000" blurRad="57150">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="37000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="BFBFBF"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ChartData!$C$2:$C$6</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispEq val="0"/>
+            <c:spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:trendline>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChartData!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="19050" dir="5400000" blurRad="57150">
+                <a:srgbClr val="000000">
+                  <a:alpha val="37000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="FEF7F2"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="B74F09"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw dist="19050" dir="5400000" blurRad="57150">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="37000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="BFBFBF"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ChartData!$D$2:$D$6</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1199841455"/>
+        <c:axId val="1199839535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1199841455"/>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:crossAx val="1199839535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="808080"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="BFBFBF"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="F2F2F2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="BFBFBF"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>XXX</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="BFBFBF"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1199839535"/>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:crossAx val="1199841455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="808080"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="BFBFBF"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="F2F2F2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="BFBFBF"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>YYY题</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="BFBFBF"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5387,6 +5943,43 @@
 </file>
 
 <file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6266,6 +6859,21 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
